--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4852F093-5E84-4131-9E43-2D39DFEF524B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7259A4DB-A019-456B-814A-DBB370597BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>0.39300000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>31</v>
@@ -721,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>23</v>
@@ -733,10 +732,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O8" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AF592-E94B-4144-9645-95787380692B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="7" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -138,12 +133,18 @@
   </si>
   <si>
     <t>PLX Devices Gallery</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,9 +590,10 @@
     <col min="11" max="13" width="30" style="10" customWidth="1"/>
     <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -599,7 +601,7 @@
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -611,7 +613,7 @@
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -623,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -635,16 +637,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -690,8 +692,11 @@
       <c r="O7" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="P7" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -736,6 +741,9 @@
       </c>
       <c r="O8" s="2">
         <v>0.40500000000000003</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -744,5 +752,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AF592-E94B-4144-9645-95787380692B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="7" r:id="rId1"/>
@@ -138,13 +137,13 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>Main Processor 24V (A)</t>
+    <t>24V Rail(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Devices_In_PLX_Loop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC4B39-4C4F-466A-86AB-87E7D7CEC2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="7" r:id="rId1"/>
@@ -107,12 +108,6 @@
     <t> verify 24VPsu Load On Addition and Deletion Of loop devices in PLX  loop </t>
   </si>
   <si>
-    <t>NGC-1680</t>
-  </si>
-  <si>
-    <t>Pro32xD</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -138,12 +133,18 @@
   </si>
   <si>
     <t>24V Rail(A)</t>
+  </si>
+  <si>
+    <t>Pro16xD</t>
+  </si>
+  <si>
+    <t>NGC-571/T1398 OR TC-187</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,8 +629,8 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
@@ -677,13 +678,13 @@
         <v>15</v>
       </c>
       <c r="K7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>19</v>
@@ -692,39 +693,39 @@
         <v>21</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5">
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>0.32900000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="2">
-        <v>0.40500000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>23</v>
@@ -736,13 +737,13 @@
         <v>22</v>
       </c>
       <c r="N8" s="2">
-        <v>0.40500000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="O8" s="2">
-        <v>0.40500000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
